--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -9,9 +9,37 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DecisionTable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>New Teen Rule</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>Adult non-member</t>
+  </si>
+  <si>
+    <t>Adult member</t>
+  </si>
+  <si>
+    <t>Senior perk</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,313 +449,317 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="36" customWidth="1" min="3" max="3"/>
-    <col width="36" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" customWidth="true" width="36.0"/>
+    <col min="2" max="2" customWidth="true" width="36.0"/>
+    <col min="3" max="3" customWidth="true" width="36.0"/>
+    <col min="4" max="4" customWidth="true" width="36.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="inlineStr" s="0">
         <is>
           <t>RuleSet</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" t="inlineStr" s="0">
         <is>
           <t>com.example.pricing</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="inlineStr" s="0">
         <is>
           <t>Import</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr" s="0">
         <is>
           <t>com.example.Customer</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="inlineStr" s="0">
         <is>
           <t>Import</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr" s="0">
         <is>
           <t>java.math.BigDecimal</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="inlineStr" s="0">
         <is>
           <t>Dialect</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr" s="0">
         <is>
           <t>java</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="inlineStr" s="0">
         <is>
           <t>Sequential</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="inlineStr" s="0">
         <is>
           <t>false</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="inlineStr" s="0">
         <is>
           <t>Agenda-group</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="inlineStr" s="0">
         <is>
           <t>pricing</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="inlineStr" s="0">
         <is>
           <t>Activation-group</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="inlineStr" s="0">
         <is>
           <t>discounts</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="inlineStr" s="0">
         <is>
           <t>Lock-on-active</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="inlineStr" s="0">
         <is>
           <t>true</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="inlineStr" s="0">
         <is>
           <t>Salience</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="inlineStr" s="0">
         <is>
           <t>10</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="inlineStr" s="0">
         <is>
           <t>Date-effective</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="inlineStr" s="0">
         <is>
           <t>2025-09-27</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="inlineStr" s="0">
         <is>
           <t>Date-expires</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="inlineStr" s="0">
         <is>
           <t>2026-09-27</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="inlineStr" s="0">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="inlineStr" s="0">
         <is>
           <t>PricingOps</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="inlineStr" s="0">
         <is>
           <t>Reviewers</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="inlineStr" s="0">
         <is>
           <t>alice@example.com,bob@example.com</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="inlineStr" s="0">
         <is>
           <t>Version</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="inlineStr" s="0">
         <is>
           <t>1.0.0</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="inlineStr" s="0">
         <is>
           <t>Schema-version</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="inlineStr" s="0">
         <is>
           <t>2025-09-27</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="inlineStr" s="0">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="inlineStr" s="0">
         <is>
           <t>Sample extended decision table for development &amp; tests.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="inlineStr" s="0">
         <is>
           <t>RuleTable</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="inlineStr" s="0">
         <is>
           <t>DiscountRules</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="inlineStr" s="0">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="inlineStr" s="0">
         <is>
           <t>CONDITION</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr" s="0">
         <is>
           <t>CONDITION</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr" s="0">
         <is>
           <t>ACTION</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr" s="0"/>
+      <c r="B19" t="inlineStr" s="0">
         <is>
           <t>customer.getAge() &gt;= $param</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr" s="0">
         <is>
           <t>customer.isMember() == $param</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr" s="0">
         <is>
           <t>customer.setDiscount($param);</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Teen perk</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.05</v>
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Adult non-member</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18</v>
-      </c>
-      <c r="C21" t="b">
+      <c r="A21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C21" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Adult member</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>18</v>
-      </c>
-      <c r="C22" t="b">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C22" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Senior perk</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>60</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="A23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -748,7 +748,9 @@
       <c r="B23" t="n" s="0">
         <v>60.0</v>
       </c>
-      <c r="C23" s="0"/>
+      <c r="C23" t="s" s="0">
+        <v>2</v>
+      </c>
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Test for Git</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +758,14 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,14 +758,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Test for Git</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>5x5 0048</t>
   </si>
 </sst>
 </file>
@@ -444,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +478,7 @@
           <t>com.example.pricing</t>
         </is>
       </c>
+      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -481,6 +491,7 @@
           <t>com.example.Customer</t>
         </is>
       </c>
+      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -493,6 +504,7 @@
           <t>java.math.BigDecimal</t>
         </is>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -505,6 +517,7 @@
           <t>java</t>
         </is>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -517,6 +530,7 @@
           <t>false</t>
         </is>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -529,6 +543,7 @@
           <t>pricing</t>
         </is>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -541,6 +556,7 @@
           <t>discounts</t>
         </is>
       </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -553,6 +569,7 @@
           <t>true</t>
         </is>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -565,6 +582,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -577,6 +595,7 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -589,6 +608,7 @@
           <t>2026-09-27</t>
         </is>
       </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -601,6 +621,7 @@
           <t>PricingOps</t>
         </is>
       </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -613,6 +634,7 @@
           <t>alice@example.com,bob@example.com</t>
         </is>
       </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -625,6 +647,7 @@
           <t>1.0.0</t>
         </is>
       </c>
+      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -637,6 +660,7 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -649,6 +673,7 @@
           <t>Sample extended decision table for development &amp; tests.</t>
         </is>
       </c>
+      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -661,6 +686,7 @@
           <t>DiscountRules</t>
         </is>
       </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -682,6 +708,9 @@
         <is>
           <t>ACTION</t>
         </is>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -701,6 +730,9 @@
           <t>customer.setDiscount($param);</t>
         </is>
       </c>
+      <c r="E19" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -715,6 +747,7 @@
       <c r="D20" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -729,6 +762,7 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -743,6 +777,7 @@
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
+      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -756,6 +791,18 @@
       </c>
       <c r="D23" t="n" s="0">
         <v>0.2</v>
+      </c>
+      <c r="E23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>5x5 0048</t>
+  </si>
+  <si>
+    <t>TEST LAST</t>
   </si>
 </sst>
 </file>
@@ -796,14 +799,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
-      <c r="E24" t="s" s="0">
-        <v>11</v>
-      </c>
+      <c r="E24" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>TEST LAST</t>
+  </si>
+  <si>
+    <t>TEST LAST 2</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +484,6 @@
           <t>com.example.pricing</t>
         </is>
       </c>
-      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -494,7 +496,6 @@
           <t>com.example.Customer</t>
         </is>
       </c>
-      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -507,7 +508,6 @@
           <t>java.math.BigDecimal</t>
         </is>
       </c>
-      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -520,7 +520,6 @@
           <t>java</t>
         </is>
       </c>
-      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -533,7 +532,6 @@
           <t>false</t>
         </is>
       </c>
-      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -546,7 +544,6 @@
           <t>pricing</t>
         </is>
       </c>
-      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -559,7 +556,6 @@
           <t>discounts</t>
         </is>
       </c>
-      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -572,7 +568,6 @@
           <t>true</t>
         </is>
       </c>
-      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -585,7 +580,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -598,7 +592,6 @@
           <t>2025-09-27</t>
         </is>
       </c>
-      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -611,7 +604,6 @@
           <t>2026-09-27</t>
         </is>
       </c>
-      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -624,7 +616,6 @@
           <t>PricingOps</t>
         </is>
       </c>
-      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -637,7 +628,6 @@
           <t>alice@example.com,bob@example.com</t>
         </is>
       </c>
-      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -650,7 +640,6 @@
           <t>1.0.0</t>
         </is>
       </c>
-      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -663,7 +652,6 @@
           <t>2025-09-27</t>
         </is>
       </c>
-      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -676,7 +664,6 @@
           <t>Sample extended decision table for development &amp; tests.</t>
         </is>
       </c>
-      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -689,7 +676,6 @@
           <t>DiscountRules</t>
         </is>
       </c>
-      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -711,9 +697,6 @@
         <is>
           <t>ACTION</t>
         </is>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -733,9 +716,6 @@
           <t>customer.setDiscount($param);</t>
         </is>
       </c>
-      <c r="E19" t="s" s="0">
-        <v>10</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -750,7 +730,6 @@
       <c r="D20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -765,7 +744,6 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -780,7 +758,6 @@
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
-      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -795,7 +772,6 @@
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>
-      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -804,7 +780,14 @@
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>TEST LAST 2</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>customer.isMember() == $param</t>
+  </si>
+  <si>
+    <t>customer.setDiscount($param);</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEST CONDITION</t>
+  </si>
+  <si>
+    <t>TEST ACTION</t>
   </si>
 </sst>
 </file>
@@ -459,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +497,8 @@
           <t>RuleSet</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr" s="0">
-        <is>
-          <t>com.example.pricing</t>
-        </is>
-      </c>
+      <c r="C1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -491,11 +506,8 @@
           <t>Import</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr" s="0">
-        <is>
-          <t>com.example.Customer</t>
-        </is>
-      </c>
+      <c r="C2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -503,11 +515,8 @@
           <t>Import</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr" s="0">
-        <is>
-          <t>java.math.BigDecimal</t>
-        </is>
-      </c>
+      <c r="C3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -515,11 +524,8 @@
           <t>Dialect</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr" s="0">
-        <is>
-          <t>java</t>
-        </is>
-      </c>
+      <c r="C4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -527,11 +533,8 @@
           <t>Sequential</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr" s="0">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="C5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -539,11 +542,8 @@
           <t>Agenda-group</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr" s="0">
-        <is>
-          <t>pricing</t>
-        </is>
-      </c>
+      <c r="C6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -551,11 +551,8 @@
           <t>Activation-group</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr" s="0">
-        <is>
-          <t>discounts</t>
-        </is>
-      </c>
+      <c r="C7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -563,11 +560,8 @@
           <t>Lock-on-active</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr" s="0">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="C8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -575,11 +569,8 @@
           <t>Salience</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr" s="0">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="C9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -587,11 +578,8 @@
           <t>Date-effective</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr" s="0">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
+      <c r="C10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -599,11 +587,8 @@
           <t>Date-expires</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr" s="0">
-        <is>
-          <t>2026-09-27</t>
-        </is>
-      </c>
+      <c r="C11" s="0"/>
+      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -611,11 +596,8 @@
           <t>Owner</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr" s="0">
-        <is>
-          <t>PricingOps</t>
-        </is>
-      </c>
+      <c r="C12" s="0"/>
+      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -623,11 +605,8 @@
           <t>Reviewers</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr" s="0">
-        <is>
-          <t>alice@example.com,bob@example.com</t>
-        </is>
-      </c>
+      <c r="C13" s="0"/>
+      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -635,11 +614,8 @@
           <t>Version</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr" s="0">
-        <is>
-          <t>1.0.0</t>
-        </is>
-      </c>
+      <c r="C14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -647,11 +623,8 @@
           <t>Schema-version</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr" s="0">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
+      <c r="C15" s="0"/>
+      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -659,11 +632,8 @@
           <t>Notes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr" s="0">
-        <is>
-          <t>Sample extended decision table for development &amp; tests.</t>
-        </is>
-      </c>
+      <c r="C16" s="0"/>
+      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -671,11 +641,8 @@
           <t>RuleTable</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr" s="0">
-        <is>
-          <t>DiscountRules</t>
-        </is>
-      </c>
+      <c r="C17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -683,38 +650,32 @@
           <t>NAME</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr" s="0">
-        <is>
-          <t>CONDITION</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr" s="0">
-        <is>
-          <t>CONDITION</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr" s="0">
-        <is>
-          <t>ACTION</t>
-        </is>
+      <c r="B18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr" s="0"/>
-      <c r="B19" t="inlineStr" s="0">
-        <is>
-          <t>customer.getAge() &gt;= $param</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr" s="0">
-        <is>
-          <t>customer.isMember() == $param</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr" s="0">
-        <is>
-          <t>customer.setDiscount($param);</t>
-        </is>
+      <c r="B19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -722,56 +683,56 @@
         <v>0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>3</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B21" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="C21" t="b" s="0">
+      <c r="B21" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="C21" s="0"/>
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B22" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="C22" t="b" s="0">
+      <c r="B22" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="C22" s="0"/>
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
+      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B23" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="C23" t="s" s="0">
+      <c r="B23" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="C23" s="0"/>
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>
+      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -780,6 +741,7 @@
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
@@ -788,6 +750,7 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>TEST ACTION</t>
+  </si>
+  <si>
+    <t>TEST 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +504,7 @@
         </is>
       </c>
       <c r="C1" s="0"/>
-      <c r="E1" s="0"/>
+      <c r="D1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -507,7 +513,7 @@
         </is>
       </c>
       <c r="C2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="D2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -516,7 +522,7 @@
         </is>
       </c>
       <c r="C3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="D3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -525,7 +531,7 @@
         </is>
       </c>
       <c r="C4" s="0"/>
-      <c r="E4" s="0"/>
+      <c r="D4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -534,7 +540,7 @@
         </is>
       </c>
       <c r="C5" s="0"/>
-      <c r="E5" s="0"/>
+      <c r="D5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -543,7 +549,7 @@
         </is>
       </c>
       <c r="C6" s="0"/>
-      <c r="E6" s="0"/>
+      <c r="D6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -552,7 +558,7 @@
         </is>
       </c>
       <c r="C7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="D7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -561,7 +567,7 @@
         </is>
       </c>
       <c r="C8" s="0"/>
-      <c r="E8" s="0"/>
+      <c r="D8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -570,7 +576,7 @@
         </is>
       </c>
       <c r="C9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="D9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -579,7 +585,7 @@
         </is>
       </c>
       <c r="C10" s="0"/>
-      <c r="E10" s="0"/>
+      <c r="D10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -588,7 +594,7 @@
         </is>
       </c>
       <c r="C11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="D11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -597,7 +603,7 @@
         </is>
       </c>
       <c r="C12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="D12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -606,7 +612,7 @@
         </is>
       </c>
       <c r="C13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="D13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -615,7 +621,7 @@
         </is>
       </c>
       <c r="C14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="D14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -624,7 +630,7 @@
         </is>
       </c>
       <c r="C15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="D15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -633,7 +639,7 @@
         </is>
       </c>
       <c r="C16" s="0"/>
-      <c r="E16" s="0"/>
+      <c r="D16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -642,7 +648,7 @@
         </is>
       </c>
       <c r="C17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="D17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -657,9 +663,6 @@
         <v>14</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -674,9 +677,6 @@
       <c r="D19" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E19" t="s" s="0">
-        <v>17</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -685,14 +685,9 @@
       <c r="B20" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>18</v>
-      </c>
+      <c r="C20" s="0"/>
       <c r="D20" t="s" s="0">
         <v>3</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +701,6 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -719,7 +713,6 @@
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
-      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -732,25 +725,30 @@
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>
-      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="24">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Test 3</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>TEST GIT SAMPLE</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +511,7 @@
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -514,6 +521,7 @@
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -523,6 +531,7 @@
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -532,6 +541,7 @@
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -541,6 +551,7 @@
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -550,6 +561,7 @@
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -559,6 +571,7 @@
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -568,6 +581,7 @@
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -577,6 +591,7 @@
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -586,6 +601,7 @@
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -595,6 +611,7 @@
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -604,6 +621,7 @@
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -613,6 +631,7 @@
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -622,6 +641,7 @@
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -631,6 +651,7 @@
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -640,6 +661,7 @@
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -649,6 +671,7 @@
       </c>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -663,6 +686,9 @@
         <v>14</v>
       </c>
       <c r="D18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -677,6 +703,9 @@
       <c r="D19" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="E19" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -689,6 +718,7 @@
       <c r="D20" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -701,6 +731,7 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -713,6 +744,7 @@
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
+      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -725,6 +757,7 @@
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>
+      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -733,22 +766,29 @@
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
         <v>20</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
+      <c r="C25" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
         <v>21</v>
       </c>
       <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
+      <c r="C26" t="s" s="0">
+        <v>23</v>
+      </c>
       <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="25">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>TEST GIT SAMPLE</t>
+  </si>
+  <si>
+    <t>gdfvfd</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,8 +513,6 @@
         </is>
       </c>
       <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -520,8 +521,6 @@
         </is>
       </c>
       <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -530,8 +529,6 @@
         </is>
       </c>
       <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -540,8 +537,6 @@
         </is>
       </c>
       <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -550,8 +545,6 @@
         </is>
       </c>
       <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -560,8 +553,6 @@
         </is>
       </c>
       <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -570,8 +561,6 @@
         </is>
       </c>
       <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -580,8 +569,6 @@
         </is>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -590,8 +577,6 @@
         </is>
       </c>
       <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -600,8 +585,6 @@
         </is>
       </c>
       <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -610,8 +593,6 @@
         </is>
       </c>
       <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -620,8 +601,6 @@
         </is>
       </c>
       <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -630,8 +609,6 @@
         </is>
       </c>
       <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -640,8 +617,6 @@
         </is>
       </c>
       <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -650,8 +625,6 @@
         </is>
       </c>
       <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -660,8 +633,6 @@
         </is>
       </c>
       <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -670,8 +641,6 @@
         </is>
       </c>
       <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -683,12 +652,6 @@
         <v>14</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -700,12 +663,6 @@
       <c r="C19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D19" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>10</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -715,10 +672,6 @@
         <v>2</v>
       </c>
       <c r="C20" s="0"/>
-      <c r="D20" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -728,10 +681,6 @@
         <v>0</v>
       </c>
       <c r="C21" s="0"/>
-      <c r="D21" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -741,10 +690,6 @@
         <v>1</v>
       </c>
       <c r="C22" s="0"/>
-      <c r="D22" t="n" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -754,41 +699,29 @@
         <v>2</v>
       </c>
       <c r="C23" s="0"/>
-      <c r="D23" t="n" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B24" s="0"/>
+      <c r="B24" t="s" s="0">
+        <v>24</v>
+      </c>
       <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
         <v>20</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+      <c r="C25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
         <v>21</v>
       </c>
       <c r="B26" s="0"/>
-      <c r="C26" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+      <c r="C26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>gdfvfd</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>3rd condition</t>
+  </si>
+  <si>
+    <t>Rule 3</t>
+  </si>
+  <si>
+    <t>3rd Rule</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -521,6 +535,8 @@
         </is>
       </c>
       <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -529,6 +545,8 @@
         </is>
       </c>
       <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -537,6 +555,8 @@
         </is>
       </c>
       <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -545,6 +565,8 @@
         </is>
       </c>
       <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -553,6 +575,8 @@
         </is>
       </c>
       <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -561,6 +585,8 @@
         </is>
       </c>
       <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -569,6 +595,8 @@
         </is>
       </c>
       <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -577,6 +605,8 @@
         </is>
       </c>
       <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -585,6 +615,8 @@
         </is>
       </c>
       <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -593,6 +625,8 @@
         </is>
       </c>
       <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -601,6 +635,8 @@
         </is>
       </c>
       <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -609,6 +645,8 @@
         </is>
       </c>
       <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -617,6 +655,8 @@
         </is>
       </c>
       <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -625,6 +665,8 @@
         </is>
       </c>
       <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -633,6 +675,8 @@
         </is>
       </c>
       <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -641,6 +685,8 @@
         </is>
       </c>
       <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -652,6 +698,12 @@
         <v>14</v>
       </c>
       <c r="C18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -661,6 +713,12 @@
         <v>15</v>
       </c>
       <c r="C19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -672,6 +730,8 @@
         <v>2</v>
       </c>
       <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -681,6 +741,8 @@
         <v>0</v>
       </c>
       <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -690,6 +752,8 @@
         <v>1</v>
       </c>
       <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -699,6 +763,8 @@
         <v>2</v>
       </c>
       <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -708,6 +774,8 @@
         <v>24</v>
       </c>
       <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
@@ -715,6 +783,8 @@
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
@@ -722,6 +792,19 @@
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="30">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>3rd Rule</t>
+  </si>
+  <si>
+    <t>Test - 09302025 1056</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,30 +784,12 @@
       <c r="A25" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B25" s="0"/>
+      <c r="B25" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="30">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>3rd Rule</t>
+  </si>
+  <si>
+    <t>Test - 09302025 1056</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,32 +782,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
+      <c r="C25" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="30">
   <si>
     <t>New Teen Rule</t>
   </si>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Kushal Nerella\Downloads\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -107,12 +107,16 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,164 +458,179 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="36" customWidth="1"/>
+    <col min="1" max="4" customWidth="true" width="36.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B21" t="b">
+      <c r="B21" t="b" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B22" t="b">
+      <c r="B22" t="b" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
+      <c r="B24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>New 301147</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -632,6 +635,15 @@
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>New 301147</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ghgf</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -590,6 +596,9 @@
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>ghgf</t>
+  </si>
+  <si>
+    <t>dsg</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -595,9 +598,8 @@
       </c>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" t="s" s="0">
-        <v>32</v>
+      <c r="E20" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="21">

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>dsg</t>
+  </si>
+  <si>
+    <t>gdhd</t>
+  </si>
+  <si>
+    <t>emit changed</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,9 @@
         <v>1</v>
       </c>
       <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
+      <c r="D20" t="s" s="0">
+        <v>34</v>
+      </c>
       <c r="E20" t="s" s="0">
         <v>33</v>
       </c>
@@ -648,7 +656,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>emit changed</t>
+  </si>
+  <si>
+    <t>gfndnvbx</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,9 @@
       <c r="B20" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C20" s="0"/>
+      <c r="C20" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="D20" t="s" s="0">
         <v>34</v>
       </c>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>gfndnvbx</t>
+  </si>
+  <si>
+    <t>dsgagass</t>
+  </si>
+  <si>
+    <t>dsvsbsb</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,9 @@
       <c r="B21" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="C21" s="0"/>
+      <c r="C21" t="s" s="0">
+        <v>37</v>
+      </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
     </row>
@@ -633,7 +641,9 @@
       <c r="B22" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="C22" s="0"/>
+      <c r="C22" t="s" s="0">
+        <v>38</v>
+      </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
     </row>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>dsvsbsb</t>
+  </si>
+  <si>
+    <t>nsngnsg</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,9 @@
       <c r="B23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C23" s="0"/>
+      <c r="C23" t="s" s="0">
+        <v>39</v>
+      </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
     </row>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="41">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>nsngnsg</t>
+  </si>
+  <si>
+    <t>Code changed 301236</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -584,26 +587,17 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="B19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -617,12 +611,6 @@
       <c r="C20" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D20" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>33</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -634,8 +622,6 @@
       <c r="C21" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -647,8 +633,6 @@
       <c r="C22" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -660,8 +644,6 @@
       <c r="C23" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -671,17 +653,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="42">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Code changed 301236</t>
+  </si>
+  <si>
+    <t>Code changed 10010017</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Code changed 10010017</t>
+  </si>
+  <si>
+    <t>Code changed 10010018</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -590,6 +593,12 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -601,7 +610,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>6</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -612,7 +627,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>36</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -623,7 +644,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>37</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -634,7 +661,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>38</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +678,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>39</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -655,14 +694,39 @@
       <c r="B24" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C24" s="0"/>
+      <c r="C24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
+      <c r="C25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" t="s" s="0">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -724,9 +724,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" t="s" s="0">
-        <v>42</v>
-      </c>
+      <c r="E26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -717,7 +717,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" t="s" s="0">

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -593,12 +593,6 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -610,13 +604,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -627,13 +615,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -644,13 +626,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -661,13 +637,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -678,53 +648,8 @@
         <v>1</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="E23" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B25" s="0"/>
-      <c r="C25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -593,6 +593,12 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -604,7 +610,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>6</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -615,7 +627,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>36</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -626,7 +644,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>37</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -637,7 +661,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>38</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +678,47 @@
         <v>1</v>
       </c>
       <c r="C23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>39</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -593,12 +593,6 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -607,16 +601,10 @@
         <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -624,50 +612,32 @@
         <v>0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B21" t="b" s="0">
-        <v>0</v>
+      <c r="B21" t="s" s="0">
+        <v>29</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B22" t="b" s="0">
-        <v>1</v>
+      <c r="B22" t="s" s="0">
+        <v>29</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -675,16 +645,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -692,34 +656,20 @@
         <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D24" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>42</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>42</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C25" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="43">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -593,6 +593,9 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -604,6 +607,9 @@
         <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -615,6 +621,9 @@
         <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>36</v>
       </c>
     </row>
@@ -626,6 +635,9 @@
         <v>29</v>
       </c>
       <c r="C21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>37</v>
       </c>
     </row>
@@ -637,6 +649,9 @@
         <v>29</v>
       </c>
       <c r="C22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>38</v>
       </c>
     </row>
@@ -648,6 +663,9 @@
         <v>29</v>
       </c>
       <c r="C23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>39</v>
       </c>
     </row>
@@ -659,17 +677,45 @@
         <v>29</v>
       </c>
       <c r="C24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C25" s="0"/>
+      <c r="C25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="45">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Code changed 10010018</t>
+  </si>
+  <si>
+    <t>jnn</t>
+  </si>
+  <si>
+    <t>jn</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -593,24 +599,30 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="E18" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
         <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -621,10 +633,13 @@
         <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -635,10 +650,13 @@
         <v>29</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -649,10 +667,13 @@
         <v>29</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -663,10 +684,13 @@
         <v>29</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -677,45 +701,36 @@
         <v>29</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D25" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>29</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
       <c r="D26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D27" s="0"/>
+      <c r="E26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="45">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -601,12 +601,6 @@
       <c r="C18" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
@@ -616,13 +610,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -633,12 +621,6 @@
         <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s" s="0">
         <v>29</v>
       </c>
     </row>
@@ -650,12 +632,6 @@
         <v>29</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s" s="0">
         <v>29</v>
       </c>
     </row>
@@ -667,12 +643,6 @@
         <v>29</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s" s="0">
         <v>29</v>
       </c>
     </row>
@@ -684,12 +654,6 @@
         <v>29</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s" s="0">
         <v>29</v>
       </c>
     </row>
@@ -701,12 +665,6 @@
         <v>29</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s" s="0">
         <v>29</v>
       </c>
     </row>
@@ -715,11 +673,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s" s="0">
+      <c r="C25" t="s" s="0">
         <v>29</v>
       </c>
     </row>
@@ -728,9 +682,9 @@
         <v>6</v>
       </c>
       <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="45">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -659,30 +659,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B25" s="0"/>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="C25" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
     </row>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="53">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>jn</t>
+  </si>
+  <si>
+    <t>next c</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Senior plus</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -495,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -599,6 +623,12 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -610,7 +640,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>43</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -618,10 +654,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -629,10 +671,16 @@
         <v>2</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -640,10 +688,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -651,32 +705,33 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="55">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>Senior plus plus</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="55">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -740,6 +740,23 @@
         <v>52</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="59">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>next cc</t>
+  </si>
+  <si>
+    <t>Deleted one condition left</t>
+  </si>
+  <si>
+    <t>Deleted one row below</t>
+  </si>
+  <si>
+    <t>New Row and Column</t>
   </si>
 </sst>
 </file>
@@ -646,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>43</v>
@@ -663,7 +675,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>47</v>
@@ -680,7 +692,7 @@
         <v>48</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>48</v>
@@ -697,7 +709,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>49</v>
@@ -714,7 +726,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>50</v>
@@ -731,7 +743,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>52</v>
@@ -742,20 +754,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>54</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B25" s="0"/>
       <c r="C25" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>54</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="61">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>New Row and Column</t>
+  </si>
+  <si>
+    <t>Senior Plus</t>
+  </si>
+  <si>
+    <t>Senior Plus 01100949</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -644,11 +650,14 @@
         <v>7</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="F18" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
@@ -661,9 +670,12 @@
         <v>55</v>
       </c>
       <c r="D19" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="F19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
@@ -678,9 +690,12 @@
         <v>29</v>
       </c>
       <c r="D20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>47</v>
       </c>
     </row>
@@ -695,9 +710,12 @@
         <v>29</v>
       </c>
       <c r="D21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -712,9 +730,12 @@
         <v>29</v>
       </c>
       <c r="D22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="F22" t="s" s="0">
         <v>49</v>
       </c>
     </row>
@@ -729,9 +750,12 @@
         <v>56</v>
       </c>
       <c r="D23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="F23" t="s" s="0">
         <v>50</v>
       </c>
     </row>
@@ -746,9 +770,12 @@
         <v>57</v>
       </c>
       <c r="D24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>52</v>
       </c>
     </row>
@@ -760,8 +787,23 @@
       <c r="C25" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D25" s="0"/>
+      <c r="D25" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="63">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Senior Plus 01100949</t>
+  </si>
+  <si>
+    <t>next vv</t>
+  </si>
+  <si>
+    <t>03102025 0937</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -653,11 +659,14 @@
         <v>7</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G18" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
@@ -673,9 +682,12 @@
         <v>59</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="G19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
@@ -693,9 +705,12 @@
         <v>29</v>
       </c>
       <c r="E20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="G20" t="s" s="0">
         <v>47</v>
       </c>
     </row>
@@ -713,9 +728,12 @@
         <v>29</v>
       </c>
       <c r="E21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="G21" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -733,9 +751,12 @@
         <v>29</v>
       </c>
       <c r="E22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="G22" t="s" s="0">
         <v>49</v>
       </c>
     </row>
@@ -753,9 +774,12 @@
         <v>29</v>
       </c>
       <c r="E23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="G23" t="s" s="0">
         <v>50</v>
       </c>
     </row>
@@ -773,9 +797,12 @@
         <v>29</v>
       </c>
       <c r="E24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="G24" t="s" s="0">
         <v>52</v>
       </c>
     </row>
@@ -790,8 +817,11 @@
       <c r="D25" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E25" s="0"/>
+      <c r="E25" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
@@ -802,8 +832,24 @@
       <c r="D26" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="E26" s="0"/>
+      <c r="E26" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DiscountRules.xlsx
+++ b/rules/DiscountRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="65">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>03102025 0937</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -851,6 +857,23 @@
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
